--- a/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
+++ b/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">ramya</t>
   </si>
   <si>
-    <t xml:space="preserve">mobile app development</t>
+    <t xml:space="preserve">Mobile App Development</t>
   </si>
   <si>
     <t xml:space="preserve">Application Developer</t>
@@ -346,7 +346,23 @@
     <t xml:space="preserve">Anurag Sharma</t>
   </si>
   <si>
-    <t xml:space="preserve">Back end development</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Back End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Developement</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Java Developer</t>
@@ -397,7 +413,7 @@
     <t xml:space="preserve">Mohan </t>
   </si>
   <si>
-    <t xml:space="preserve">Big data</t>
+    <t xml:space="preserve">Big Data</t>
   </si>
   <si>
     <t xml:space="preserve">Big Data Developer</t>
@@ -419,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yashwini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back End Developement</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Boot Developer</t>
@@ -519,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0\$"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -561,6 +580,11 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,6 +660,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -718,7 +746,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1189,7 +1217,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -1294,7 +1322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
@@ -1310,20 +1338,20 @@
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>108</v>
+      <c r="F17" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>700</v>
@@ -1334,31 +1362,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>2000</v>
@@ -1369,13 +1397,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
@@ -1387,13 +1415,13 @@
         <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>1200</v>
@@ -1404,13 +1432,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
@@ -1422,13 +1450,13 @@
         <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>900</v>
@@ -1439,13 +1467,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -1457,13 +1485,13 @@
         <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>1000</v>

--- a/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
+++ b/service-provider-profile-service/src/main/resources/Seed_Ideas2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -346,23 +346,7 @@
     <t xml:space="preserve">Anurag Sharma</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Back End </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Developement</t>
-    </r>
+    <t xml:space="preserve">Back End Developement</t>
   </si>
   <si>
     <t xml:space="preserve">Java Developer</t>
@@ -435,9 +419,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yashwini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back End Developement</t>
   </si>
   <si>
     <t xml:space="preserve">Spring Boot Developer</t>
@@ -538,7 +519,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0\$"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -580,11 +561,6 @@
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,7 +605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -660,10 +636,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -745,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -755,7 +727,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="82.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.43"/>
@@ -1338,20 +1310,20 @@
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>700</v>
@@ -1362,31 +1334,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>2000</v>
@@ -1397,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
@@ -1415,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>1200</v>
@@ -1432,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
@@ -1450,13 +1422,13 @@
         <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>900</v>
@@ -1467,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -1485,13 +1457,13 @@
         <v>40</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>1000</v>
